--- a/Assets/workbook.xlsx
+++ b/Assets/workbook.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28315"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quanvo/Projects/jsonPerf/Assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quanvo/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,21 +27,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>Deserialization</t>
-  </si>
-  <si>
-    <t>Object Mapping</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
   <si>
     <t>JSONDecoder</t>
   </si>
   <si>
     <t>JSONSerialization</t>
-  </si>
-  <si>
-    <t>SwiftyJSON</t>
   </si>
 </sst>
 </file>
@@ -77,8 +68,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -128,7 +120,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Processing 7MB JSON File</a:t>
+              <a:t>2016 MacBook Pro</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -171,131 +163,13 @@
         <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Deserialization</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$2:$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>JSONDecoder</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>JSONSerialization</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>SwiftyJSON</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$2:$B$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="1">
-                  <c:v>87.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>93.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Object Mapping</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -369,35 +243,29 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$4</c:f>
+              <c:f>Sheet1!$A$2:$A$3</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>JSONDecoder</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>JSONSerialization</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>SwiftyJSON</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$4</c:f>
+              <c:f>Sheet1!$B$2:$B$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>994.0</c:v>
+                  <c:v>1.012</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>705.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1020.0</c:v>
+                  <c:v>0.872</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -413,11 +281,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="291806048"/>
-        <c:axId val="291808368"/>
+        <c:axId val="890588720"/>
+        <c:axId val="890591472"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="291806048"/>
+        <c:axId val="890588720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -460,7 +328,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="291808368"/>
+        <c:crossAx val="890591472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -468,7 +336,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="291808368"/>
+        <c:axId val="890591472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -574,7 +442,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="291806048"/>
+        <c:crossAx val="890588720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -586,8 +454,88 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Ubuntu 14.04 VM on 2016 MacBook Pro</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -602,7 +550,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -617,7 +565,306 @@
           <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
-    </c:legend>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$20:$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>JSONDecoder</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>JSONSerialization</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$20:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>15188.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14826.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="891898944"/>
+        <c:axId val="891901264"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="891898944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="891901264"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="891901264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>milliseconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="891898944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -695,6 +942,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
@@ -1200,20 +1487,525 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>311150</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>184150</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1227,6 +2019,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1498,55 +2322,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A2:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2">
+        <v>1.012</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>994</v>
+      <c r="B3">
+        <v>0.872</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>87</v>
-      </c>
-      <c r="C3">
-        <v>705</v>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <f>(B2-B3)/B3*100</f>
+        <v>16.055045871559635</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>4</v>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>0</v>
       </c>
-      <c r="B4">
-        <v>93</v>
+      <c r="B20" s="1">
+        <v>15188</v>
       </c>
-      <c r="C4">
-        <v>1020</v>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="1">
+        <v>14826</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <f>(B20-B21)/B21*100</f>
+        <v>2.4416565493052746</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/workbook.xlsx
+++ b/Assets/workbook.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quanvo/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quanvo/IBM/jsonPerf/Assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="38400" windowHeight="19460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="19200" windowHeight="19460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -262,10 +262,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1.012</c:v>
+                  <c:v>1.079</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.872</c:v>
+                  <c:v>0.938</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2325,7 +2325,7 @@
   <dimension ref="A2:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2339,7 +2339,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.012</v>
+        <v>1.079</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -2347,13 +2347,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.872</v>
+        <v>0.93799999999999994</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B6">
         <f>(B2-B3)/B3*100</f>
-        <v>16.055045871559635</v>
+        <v>15.031982942430705</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">

--- a/Assets/workbook.xlsx
+++ b/Assets/workbook.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="19200" windowHeight="19460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="19200" windowHeight="18880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,6 +39,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -70,7 +73,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -281,11 +284,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="890588720"/>
-        <c:axId val="890591472"/>
+        <c:axId val="-2025585200"/>
+        <c:axId val="-2025582880"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="890588720"/>
+        <c:axId val="-2025585200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -328,7 +331,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="890591472"/>
+        <c:crossAx val="-2025582880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -336,7 +339,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="890591472"/>
+        <c:axId val="-2025582880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -442,7 +445,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="890588720"/>
+        <c:crossAx val="-2025585200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -670,13 +673,13 @@
             <c:numRef>
               <c:f>Sheet1!$B$20:$B$21</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
+                <c:formatCode>#,##0.000</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>15188.0</c:v>
+                  <c:v>1.836</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14826.0</c:v>
+                  <c:v>1.612</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -692,11 +695,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="891898944"/>
-        <c:axId val="891901264"/>
+        <c:axId val="-2025563184"/>
+        <c:axId val="-2025560864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="891898944"/>
+        <c:axId val="-2025563184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -739,7 +742,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="891901264"/>
+        <c:crossAx val="-2025560864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -747,7 +750,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="891901264"/>
+        <c:axId val="-2025560864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -853,7 +856,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="891898944"/>
+        <c:crossAx val="-2025563184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2325,7 +2328,7 @@
   <dimension ref="A2:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2361,7 +2364,7 @@
         <v>0</v>
       </c>
       <c r="B20" s="1">
-        <v>15188</v>
+        <v>1.8360000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -2369,13 +2372,13 @@
         <v>1</v>
       </c>
       <c r="B21" s="1">
-        <v>14826</v>
+        <v>1.6120000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B24">
         <f>(B20-B21)/B21*100</f>
-        <v>2.4416565493052746</v>
+        <v>13.895781637717119</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/workbook.xlsx
+++ b/Assets/workbook.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28410"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28502"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="19200" windowHeight="18880" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="16800" windowHeight="18880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -265,10 +265,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1.079</c:v>
+                  <c:v>0.942</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.938</c:v>
+                  <c:v>0.849</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -284,11 +284,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2025585200"/>
-        <c:axId val="-2025582880"/>
+        <c:axId val="-1466790416"/>
+        <c:axId val="-1466788096"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2025585200"/>
+        <c:axId val="-1466790416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -331,7 +331,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2025582880"/>
+        <c:crossAx val="-1466788096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -339,7 +339,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2025582880"/>
+        <c:axId val="-1466788096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -380,7 +380,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>milliseconds</a:t>
+                  <a:t>seconds</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -415,6 +415,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -445,7 +446,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2025585200"/>
+        <c:crossAx val="-1466790416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -676,10 +677,10 @@
                 <c:formatCode>#,##0.000</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1.836</c:v>
+                  <c:v>1.431</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.612</c:v>
+                  <c:v>1.435</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -695,11 +696,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2025563184"/>
-        <c:axId val="-2025560864"/>
+        <c:axId val="-1466760544"/>
+        <c:axId val="-1466757792"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2025563184"/>
+        <c:axId val="-1466760544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -742,7 +743,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2025560864"/>
+        <c:crossAx val="-1466757792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -750,7 +751,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2025560864"/>
+        <c:axId val="-1466757792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -791,7 +792,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>milliseconds</a:t>
+                  <a:t>seconds</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -856,7 +857,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2025563184"/>
+        <c:crossAx val="-1466760544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2325,10 +2326,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B24"/>
+  <dimension ref="A2:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2342,7 +2343,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.079</v>
+        <v>0.94199999999999995</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -2350,13 +2351,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.93799999999999994</v>
+        <v>0.84899999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B6">
         <f>(B2-B3)/B3*100</f>
-        <v>15.031982942430705</v>
+        <v>10.954063604240281</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -2364,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="B20" s="1">
-        <v>1.8360000000000001</v>
+        <v>1.431</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -2372,13 +2373,19 @@
         <v>1</v>
       </c>
       <c r="B21" s="1">
-        <v>1.6120000000000001</v>
+        <v>1.4350000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B24">
         <f>(B20-B21)/B21*100</f>
-        <v>13.895781637717119</v>
+        <v>-0.27874564459930334</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <f>(B20-B21)/B20*100</f>
+        <v>-0.27952480782669487</v>
       </c>
     </row>
   </sheetData>
